--- a/[3]any_run_saves/onlycases.xlsx
+++ b/[3]any_run_saves/onlycases.xlsx
@@ -461,17 +461,17 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>$5.20</t>
+          <t>$5.25</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>$5.07</t>
+          <t>$5.09</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>$388,590.15</t>
+          <t>$390,123.05</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
@@ -493,22 +493,22 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>CS:GO Weapon Case</t>
+          <t>Glove Case</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>$71.78</t>
+          <t>$4.12</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>$71.78</t>
+          <t>$4.00</t>
         </is>
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>$296,092.50</t>
+          <t>$304,368.00</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
@@ -518,34 +518,34 @@
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>4125.0</t>
+          <t>76092.0</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>0.97%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Glove Case</t>
+          <t>CS:GO Weapon Case</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>$4.00</t>
+          <t>$72.32</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>$3.82</t>
+          <t>$72.23</t>
         </is>
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>$290,671.44</t>
+          <t>$297,948.75</t>
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr">
@@ -555,12 +555,12 @@
       </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>76092.0</t>
+          <t>4125.0</t>
         </is>
       </c>
       <c r="G4" s="1" t="inlineStr">
         <is>
-          <t>0.95%</t>
+          <t>1.0%</t>
         </is>
       </c>
     </row>
@@ -572,17 +572,17 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>$40.20</t>
+          <t>$41.23</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>$39.92</t>
+          <t>$41.05</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>$174,969.36</t>
+          <t>$179,922.15</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>0.99%</t>
+          <t>1.0%</t>
         </is>
       </c>
     </row>
@@ -609,17 +609,17 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>$3.43</t>
+          <t>$3.48</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>$3.43</t>
+          <t>$3.48</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>$158,308.22</t>
+          <t>$160,615.92</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
@@ -646,17 +646,17 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>$2.63</t>
+          <t>$2.83</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>$2.55</t>
+          <t>$2.70</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>$151,072.20</t>
+          <t>$159,958.80</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
-          <t>0.97%</t>
+          <t>0.95%</t>
         </is>
       </c>
     </row>
@@ -683,17 +683,17 @@
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>$1.97</t>
+          <t>$2.10</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>$1.97</t>
+          <t>$2.03</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>$143,443.58</t>
+          <t>$147,812.42</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
@@ -708,7 +708,7 @@
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>0.97%</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>$2.29</t>
+          <t>$2.34</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="G9" s="1" t="inlineStr">
         <is>
-          <t>0.95%</t>
+          <t>0.93%</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>$1.97</t>
+          <t>$2.03</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="G10" s="1" t="inlineStr">
         <is>
-          <t>0.96%</t>
+          <t>0.94%</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>$3.14</t>
+          <t>$3.07</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="G11" s="1" t="inlineStr">
         <is>
-          <t>0.98%</t>
+          <t>1.0%</t>
         </is>
       </c>
     </row>
@@ -831,17 +831,17 @@
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>$2.12</t>
+          <t>$2.11</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>$1.99</t>
+          <t>$1.97</t>
         </is>
       </c>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>$133,168.81</t>
+          <t>$131,830.43</t>
         </is>
       </c>
       <c r="E12" s="1" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="G12" s="1" t="inlineStr">
         <is>
-          <t>0.94%</t>
+          <t>0.93%</t>
         </is>
       </c>
     </row>
@@ -868,17 +868,17 @@
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>$1.36</t>
+          <t>$1.42</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>$1.36</t>
+          <t>$1.38</t>
         </is>
       </c>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>$126,356.24</t>
+          <t>$128,214.42</t>
         </is>
       </c>
       <c r="E13" s="1" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="G13" s="1" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>0.97%</t>
         </is>
       </c>
     </row>
@@ -905,17 +905,17 @@
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>$1.46</t>
+          <t>$1.55</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>$1.45</t>
+          <t>$1.49</t>
         </is>
       </c>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>$119,988.95</t>
+          <t>$123,298.99</t>
         </is>
       </c>
       <c r="E14" s="1" t="inlineStr">
@@ -930,7 +930,7 @@
       </c>
       <c r="G14" s="1" t="inlineStr">
         <is>
-          <t>0.99%</t>
+          <t>0.96%</t>
         </is>
       </c>
     </row>
@@ -942,17 +942,17 @@
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>$4.27</t>
+          <t>$4.28</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>$4.27</t>
+          <t>$4.28</t>
         </is>
       </c>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>$108,820.95</t>
+          <t>$109,075.80</t>
         </is>
       </c>
       <c r="E15" s="1" t="inlineStr">
@@ -979,17 +979,17 @@
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
+          <t>$0.46</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
           <t>$0.45</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t>$0.43</t>
-        </is>
-      </c>
       <c r="D16" s="1" t="inlineStr">
         <is>
-          <t>$97,729.97</t>
+          <t>$102,275.55</t>
         </is>
       </c>
       <c r="E16" s="1" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="G16" s="1" t="inlineStr">
         <is>
-          <t>0.96%</t>
+          <t>0.98%</t>
         </is>
       </c>
     </row>
@@ -1016,17 +1016,17 @@
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>$19.45</t>
+          <t>$19.25</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>$19.33</t>
+          <t>$19.04</t>
         </is>
       </c>
       <c r="D17" s="1" t="inlineStr">
         <is>
-          <t>$93,073.95</t>
+          <t>$91,677.60</t>
         </is>
       </c>
       <c r="E17" s="1" t="inlineStr">
@@ -1053,17 +1053,17 @@
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>$1.95</t>
+          <t>$2.02</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>$1.91</t>
+          <t>$1.89</t>
         </is>
       </c>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>$89,754.72</t>
+          <t>$88,814.88</t>
         </is>
       </c>
       <c r="E18" s="1" t="inlineStr">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="G18" s="1" t="inlineStr">
         <is>
-          <t>0.98%</t>
+          <t>0.94%</t>
         </is>
       </c>
     </row>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>$0.97</t>
+          <t>$0.99</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="G19" s="1" t="inlineStr">
         <is>
-          <t>0.69%</t>
+          <t>0.68%</t>
         </is>
       </c>
     </row>
@@ -1127,17 +1127,17 @@
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>$0.96</t>
+          <t>$0.94</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>$0.90</t>
+          <t>$0.91</t>
         </is>
       </c>
       <c r="D20" s="1" t="inlineStr">
         <is>
-          <t>$84,105.00</t>
+          <t>$85,039.50</t>
         </is>
       </c>
       <c r="E20" s="1" t="inlineStr">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="G20" s="1" t="inlineStr">
         <is>
-          <t>0.94%</t>
+          <t>0.97%</t>
         </is>
       </c>
     </row>
@@ -1164,17 +1164,17 @@
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>$7.50</t>
+          <t>$7.77</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>$7.31</t>
+          <t>$7.67</t>
         </is>
       </c>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>$75,746.22</t>
+          <t>$79,476.54</t>
         </is>
       </c>
       <c r="E21" s="1" t="inlineStr">
@@ -1189,29 +1189,29 @@
       </c>
       <c r="G21" s="1" t="inlineStr">
         <is>
-          <t>0.97%</t>
+          <t>0.99%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Clutch Case</t>
+          <t>Prisma 2 Case</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>$0.56</t>
+          <t>$0.63</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>$0.37</t>
+          <t>$0.53</t>
         </is>
       </c>
       <c r="D22" s="1" t="inlineStr">
         <is>
-          <t>$71,048.14</t>
+          <t>$72,114.98</t>
         </is>
       </c>
       <c r="E22" s="1" t="inlineStr">
@@ -1221,34 +1221,34 @@
       </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t>192022.0</t>
+          <t>136066.0</t>
         </is>
       </c>
       <c r="G22" s="1" t="inlineStr">
         <is>
-          <t>0.66%</t>
+          <t>0.84%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Prisma 2 Case</t>
+          <t>Clutch Case</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>$0.60</t>
+          <t>$0.59</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>$0.52</t>
+          <t>$0.37</t>
         </is>
       </c>
       <c r="D23" s="1" t="inlineStr">
         <is>
-          <t>$70,754.32</t>
+          <t>$71,048.14</t>
         </is>
       </c>
       <c r="E23" s="1" t="inlineStr">
@@ -1258,12 +1258,12 @@
       </c>
       <c r="F23" s="1" t="inlineStr">
         <is>
-          <t>136066.0</t>
+          <t>192022.0</t>
         </is>
       </c>
       <c r="G23" s="1" t="inlineStr">
         <is>
-          <t>0.87%</t>
+          <t>0.63%</t>
         </is>
       </c>
     </row>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>$0.58</t>
+          <t>$0.60</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr">
@@ -1300,29 +1300,29 @@
       </c>
       <c r="G24" s="1" t="inlineStr">
         <is>
-          <t>0.86%</t>
+          <t>0.83%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Prisma Case</t>
+          <t>eSports 2013 Winter Case</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>$0.56</t>
+          <t>$6.29</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
-          <t>$0.54</t>
+          <t>$6.06</t>
         </is>
       </c>
       <c r="D25" s="1" t="inlineStr">
         <is>
-          <t>$67,862.88</t>
+          <t>$57,866.94</t>
         </is>
       </c>
       <c r="E25" s="1" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="F25" s="1" t="inlineStr">
         <is>
-          <t>125672.0</t>
+          <t>9549.0</t>
         </is>
       </c>
       <c r="G25" s="1" t="inlineStr">
@@ -1344,22 +1344,22 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>eSports 2013 Winter Case</t>
+          <t>Prisma Case</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>$6.46</t>
+          <t>$0.57</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>$6.27</t>
+          <t>$0.45</t>
         </is>
       </c>
       <c r="D26" s="1" t="inlineStr">
         <is>
-          <t>$59,872.23</t>
+          <t>$56,552.40</t>
         </is>
       </c>
       <c r="E26" s="1" t="inlineStr">
@@ -1369,12 +1369,12 @@
       </c>
       <c r="F26" s="1" t="inlineStr">
         <is>
-          <t>9549.0</t>
+          <t>125672.0</t>
         </is>
       </c>
       <c r="G26" s="1" t="inlineStr">
         <is>
-          <t>0.97%</t>
+          <t>0.79%</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>$1.70</t>
+          <t>$1.75</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="G27" s="1" t="inlineStr">
         <is>
-          <t>0.88%</t>
+          <t>0.86%</t>
         </is>
       </c>
     </row>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>$2.43</t>
+          <t>$2.35</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="G28" s="1" t="inlineStr">
         <is>
-          <t>0.93%</t>
+          <t>0.97%</t>
         </is>
       </c>
     </row>
@@ -1460,17 +1460,17 @@
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>$10.82</t>
+          <t>$11.23</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t>$10.82</t>
+          <t>$11.23</t>
         </is>
       </c>
       <c r="D29" s="1" t="inlineStr">
         <is>
-          <t>$42,847.20</t>
+          <t>$44,470.80</t>
         </is>
       </c>
       <c r="E29" s="1" t="inlineStr">
@@ -1492,22 +1492,22 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Operation Vanguard Weapon Case</t>
+          <t>Recoil Case</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>$2.23</t>
+          <t>$0.40</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>$2.09</t>
+          <t>$0.38</t>
         </is>
       </c>
       <c r="D30" s="1" t="inlineStr">
         <is>
-          <t>$38,642.01</t>
+          <t>$40,809.34</t>
         </is>
       </c>
       <c r="E30" s="1" t="inlineStr">
@@ -1517,12 +1517,12 @@
       </c>
       <c r="F30" s="1" t="inlineStr">
         <is>
-          <t>18489.0</t>
+          <t>107393.0</t>
         </is>
       </c>
       <c r="G30" s="1" t="inlineStr">
         <is>
-          <t>0.94%</t>
+          <t>0.95%</t>
         </is>
       </c>
     </row>
@@ -1534,17 +1534,17 @@
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>$5.84</t>
+          <t>$5.75</t>
         </is>
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t>$5.10</t>
+          <t>$5.37</t>
         </is>
       </c>
       <c r="D31" s="1" t="inlineStr">
         <is>
-          <t>$37,928.70</t>
+          <t>$39,936.69</t>
         </is>
       </c>
       <c r="E31" s="1" t="inlineStr">
@@ -1559,29 +1559,29 @@
       </c>
       <c r="G31" s="1" t="inlineStr">
         <is>
-          <t>0.87%</t>
+          <t>0.93%</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Horizon Case</t>
+          <t>Operation Vanguard Weapon Case</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>$0.65</t>
+          <t>$2.18</t>
         </is>
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>$0.64</t>
+          <t>$2.08</t>
         </is>
       </c>
       <c r="D32" s="1" t="inlineStr">
         <is>
-          <t>$36,935.04</t>
+          <t>$38,457.12</t>
         </is>
       </c>
       <c r="E32" s="1" t="inlineStr">
@@ -1591,34 +1591,34 @@
       </c>
       <c r="F32" s="1" t="inlineStr">
         <is>
-          <t>57711.0</t>
+          <t>18489.0</t>
         </is>
       </c>
       <c r="G32" s="1" t="inlineStr">
         <is>
-          <t>0.98%</t>
+          <t>0.95%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>CS:GO Weapon Case 3</t>
+          <t>CS20 Case</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>$6.96</t>
+          <t>$0.61</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>$6.96</t>
+          <t>$0.56</t>
         </is>
       </c>
       <c r="D33" s="1" t="inlineStr">
         <is>
-          <t>$36,748.80</t>
+          <t>$37,217.04</t>
         </is>
       </c>
       <c r="E33" s="1" t="inlineStr">
@@ -1628,34 +1628,34 @@
       </c>
       <c r="F33" s="1" t="inlineStr">
         <is>
-          <t>5280.0</t>
+          <t>66459.0</t>
         </is>
       </c>
       <c r="G33" s="1" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>0.92%</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>CS20 Case</t>
+          <t>CS:GO Weapon Case 3</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>$0.58</t>
+          <t>$6.94</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>$0.55</t>
+          <t>$6.94</t>
         </is>
       </c>
       <c r="D34" s="1" t="inlineStr">
         <is>
-          <t>$36,552.45</t>
+          <t>$36,643.20</t>
         </is>
       </c>
       <c r="E34" s="1" t="inlineStr">
@@ -1665,12 +1665,12 @@
       </c>
       <c r="F34" s="1" t="inlineStr">
         <is>
-          <t>66459.0</t>
+          <t>5280.0</t>
         </is>
       </c>
       <c r="G34" s="1" t="inlineStr">
         <is>
-          <t>0.95%</t>
+          <t>1.0%</t>
         </is>
       </c>
     </row>
@@ -1682,7 +1682,7 @@
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>$0.26</t>
+          <t>$0.27</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr">
@@ -1707,29 +1707,29 @@
       </c>
       <c r="G35" s="1" t="inlineStr">
         <is>
-          <t>0.69%</t>
+          <t>0.67%</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>eSports 2013 Case</t>
+          <t>Horizon Case</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>$35.07</t>
+          <t>$0.70</t>
         </is>
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t>$35.07</t>
+          <t>$0.58</t>
         </is>
       </c>
       <c r="D36" s="1" t="inlineStr">
         <is>
-          <t>$32,439.75</t>
+          <t>$33,472.38</t>
         </is>
       </c>
       <c r="E36" s="1" t="inlineStr">
@@ -1739,34 +1739,34 @@
       </c>
       <c r="F36" s="1" t="inlineStr">
         <is>
-          <t>925.0</t>
+          <t>57711.0</t>
         </is>
       </c>
       <c r="G36" s="1" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>0.83%</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Shadow Case</t>
+          <t>eSports 2013 Case</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>$0.79</t>
+          <t>$34.91</t>
         </is>
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>$0.79</t>
+          <t>$34.91</t>
         </is>
       </c>
       <c r="D37" s="1" t="inlineStr">
         <is>
-          <t>$28,537.96</t>
+          <t>$32,291.75</t>
         </is>
       </c>
       <c r="E37" s="1" t="inlineStr">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="F37" s="1" t="inlineStr">
         <is>
-          <t>36124.0</t>
+          <t>925.0</t>
         </is>
       </c>
       <c r="G37" s="1" t="inlineStr">
@@ -1788,22 +1788,22 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Falchion Case</t>
+          <t>Shadow Case</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>$0.81</t>
+          <t>$0.82</t>
         </is>
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>$0.76</t>
+          <t>$0.78</t>
         </is>
       </c>
       <c r="D38" s="1" t="inlineStr">
         <is>
-          <t>$26,514.12</t>
+          <t>$28,176.72</t>
         </is>
       </c>
       <c r="E38" s="1" t="inlineStr">
@@ -1813,34 +1813,34 @@
       </c>
       <c r="F38" s="1" t="inlineStr">
         <is>
-          <t>34887.0</t>
+          <t>36124.0</t>
         </is>
       </c>
       <c r="G38" s="1" t="inlineStr">
         <is>
-          <t>0.94%</t>
+          <t>0.95%</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Winter Offensive Weapon Case</t>
+          <t>Falchion Case</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>$5.23</t>
+          <t>$0.80</t>
         </is>
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>$4.95</t>
+          <t>$0.76</t>
         </is>
       </c>
       <c r="D39" s="1" t="inlineStr">
         <is>
-          <t>$23,809.50</t>
+          <t>$26,514.12</t>
         </is>
       </c>
       <c r="E39" s="1" t="inlineStr">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="F39" s="1" t="inlineStr">
         <is>
-          <t>4810.0</t>
+          <t>34887.0</t>
         </is>
       </c>
       <c r="G39" s="1" t="inlineStr">
@@ -1862,22 +1862,22 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Recoil Case</t>
+          <t>Winter Offensive Weapon Case</t>
         </is>
       </c>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>$0.40</t>
+          <t>$4.71</t>
         </is>
       </c>
       <c r="C40" s="1" t="inlineStr">
         <is>
-          <t>$0.02</t>
+          <t>$4.71</t>
         </is>
       </c>
       <c r="D40" s="1" t="inlineStr">
         <is>
-          <t>$2,147.86</t>
+          <t>$22,655.10</t>
         </is>
       </c>
       <c r="E40" s="1" t="inlineStr">
@@ -1887,12 +1887,12 @@
       </c>
       <c r="F40" s="1" t="inlineStr">
         <is>
-          <t>107393.0</t>
+          <t>4810.0</t>
         </is>
       </c>
       <c r="G40" s="1" t="inlineStr">
         <is>
-          <t>0.05%</t>
+          <t>1.0%</t>
         </is>
       </c>
     </row>

--- a/[3]any_run_saves/onlycases.xlsx
+++ b/[3]any_run_saves/onlycases.xlsx
@@ -461,17 +461,17 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>$5.25</t>
+          <t>$5.12</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>$5.09</t>
+          <t>$5.11</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>$390,123.05</t>
+          <t>$391,655.95</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
@@ -486,7 +486,7 @@
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>0.97%</t>
+          <t>1.0%</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>$4.12</t>
+          <t>$4.23</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
@@ -523,7 +523,7 @@
       </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
-          <t>0.97%</t>
+          <t>0.95%</t>
         </is>
       </c>
     </row>
@@ -535,17 +535,17 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>$72.32</t>
+          <t>$72.85</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>$72.23</t>
+          <t>$72.37</t>
         </is>
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>$297,948.75</t>
+          <t>$298,526.25</t>
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr">
@@ -560,7 +560,7 @@
       </c>
       <c r="G4" s="1" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>0.99%</t>
         </is>
       </c>
     </row>
@@ -572,17 +572,17 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>$41.23</t>
+          <t>$42.33</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>$41.05</t>
+          <t>$41.76</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>$179,922.15</t>
+          <t>$183,034.08</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>0.99%</t>
         </is>
       </c>
     </row>
@@ -614,12 +614,12 @@
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>$3.48</t>
+          <t>$3.47</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>$160,615.92</t>
+          <t>$160,154.38</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
@@ -646,17 +646,17 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>$2.83</t>
+          <t>$2.80</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>$2.70</t>
+          <t>$2.63</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>$159,958.80</t>
+          <t>$155,811.72</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
-          <t>0.95%</t>
+          <t>0.94%</t>
         </is>
       </c>
     </row>
@@ -683,17 +683,17 @@
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>$2.10</t>
+          <t>$2.15</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>$2.03</t>
+          <t>$2.00</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>$147,812.42</t>
+          <t>$145,628.00</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
@@ -708,7 +708,7 @@
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
-          <t>0.97%</t>
+          <t>0.93%</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>$2.34</t>
+          <t>$2.38</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="G9" s="1" t="inlineStr">
         <is>
-          <t>0.93%</t>
+          <t>0.92%</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>$2.03</t>
+          <t>$2.04</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="G10" s="1" t="inlineStr">
         <is>
-          <t>0.94%</t>
+          <t>0.93%</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>$3.07</t>
+          <t>$3.03</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>$3.07</t>
+          <t>$3.03</t>
         </is>
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>$136,062.40</t>
+          <t>$134,289.60</t>
         </is>
       </c>
       <c r="E11" s="1" t="inlineStr">
@@ -831,17 +831,17 @@
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>$2.11</t>
+          <t>$2.16</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>$1.97</t>
+          <t>$1.95</t>
         </is>
       </c>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>$131,830.43</t>
+          <t>$130,492.05</t>
         </is>
       </c>
       <c r="E12" s="1" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="G12" s="1" t="inlineStr">
         <is>
-          <t>0.93%</t>
+          <t>0.9%</t>
         </is>
       </c>
     </row>
@@ -868,7 +868,7 @@
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>$1.42</t>
+          <t>$1.46</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="G13" s="1" t="inlineStr">
         <is>
-          <t>0.97%</t>
+          <t>0.95%</t>
         </is>
       </c>
     </row>
@@ -910,12 +910,12 @@
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>$1.49</t>
+          <t>$1.51</t>
         </is>
       </c>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>$123,298.99</t>
+          <t>$124,954.01</t>
         </is>
       </c>
       <c r="E14" s="1" t="inlineStr">
@@ -930,29 +930,29 @@
       </c>
       <c r="G14" s="1" t="inlineStr">
         <is>
-          <t>0.96%</t>
+          <t>0.97%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Operation Riptide Case</t>
+          <t>Dreams &amp; Nightmares Case</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>$4.28</t>
+          <t>$0.96</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>$4.28</t>
+          <t>$0.95</t>
         </is>
       </c>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>$109,075.80</t>
+          <t>$120,878.00</t>
         </is>
       </c>
       <c r="E15" s="1" t="inlineStr">
@@ -962,34 +962,34 @@
       </c>
       <c r="F15" s="1" t="inlineStr">
         <is>
-          <t>25485.0</t>
+          <t>127240.0</t>
         </is>
       </c>
       <c r="G15" s="1" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>0.99%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Fracture Case</t>
+          <t>Operation Riptide Case</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>$0.46</t>
+          <t>$4.25</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>$0.45</t>
+          <t>$4.25</t>
         </is>
       </c>
       <c r="D16" s="1" t="inlineStr">
         <is>
-          <t>$102,275.55</t>
+          <t>$108,311.25</t>
         </is>
       </c>
       <c r="E16" s="1" t="inlineStr">
@@ -999,34 +999,34 @@
       </c>
       <c r="F16" s="1" t="inlineStr">
         <is>
-          <t>227279.0</t>
+          <t>25485.0</t>
         </is>
       </c>
       <c r="G16" s="1" t="inlineStr">
         <is>
-          <t>0.98%</t>
+          <t>1.0%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Operation Hydra Case</t>
+          <t>Fracture Case</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>$19.25</t>
+          <t>$0.48</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>$19.04</t>
+          <t>$0.45</t>
         </is>
       </c>
       <c r="D17" s="1" t="inlineStr">
         <is>
-          <t>$91,677.60</t>
+          <t>$102,275.55</t>
         </is>
       </c>
       <c r="E17" s="1" t="inlineStr">
@@ -1036,34 +1036,34 @@
       </c>
       <c r="F17" s="1" t="inlineStr">
         <is>
-          <t>4815.0</t>
+          <t>227279.0</t>
         </is>
       </c>
       <c r="G17" s="1" t="inlineStr">
         <is>
-          <t>0.99%</t>
+          <t>0.94%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Spectrum Case</t>
+          <t>Clutch Case</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>$2.02</t>
+          <t>$0.59</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>$1.89</t>
+          <t>$0.51</t>
         </is>
       </c>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>$88,814.88</t>
+          <t>$97,931.22</t>
         </is>
       </c>
       <c r="E18" s="1" t="inlineStr">
@@ -1073,34 +1073,34 @@
       </c>
       <c r="F18" s="1" t="inlineStr">
         <is>
-          <t>46992.0</t>
+          <t>192022.0</t>
         </is>
       </c>
       <c r="G18" s="1" t="inlineStr">
         <is>
-          <t>0.94%</t>
+          <t>0.86%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Dreams &amp; Nightmares Case</t>
+          <t>Operation Hydra Case</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>$0.99</t>
+          <t>$19.04</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>$0.67</t>
+          <t>$19.04</t>
         </is>
       </c>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>$85,250.80</t>
+          <t>$91,677.60</t>
         </is>
       </c>
       <c r="E19" s="1" t="inlineStr">
@@ -1110,34 +1110,34 @@
       </c>
       <c r="F19" s="1" t="inlineStr">
         <is>
-          <t>127240.0</t>
+          <t>4815.0</t>
         </is>
       </c>
       <c r="G19" s="1" t="inlineStr">
         <is>
-          <t>0.68%</t>
+          <t>1.0%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Revolution Case</t>
+          <t>Spectrum Case</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>$0.94</t>
+          <t>$2.09</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>$0.91</t>
+          <t>$1.89</t>
         </is>
       </c>
       <c r="D20" s="1" t="inlineStr">
         <is>
-          <t>$85,039.50</t>
+          <t>$88,814.88</t>
         </is>
       </c>
       <c r="E20" s="1" t="inlineStr">
@@ -1147,34 +1147,34 @@
       </c>
       <c r="F20" s="1" t="inlineStr">
         <is>
-          <t>93450.0</t>
+          <t>46992.0</t>
         </is>
       </c>
       <c r="G20" s="1" t="inlineStr">
         <is>
-          <t>0.97%</t>
+          <t>0.9%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Huntsman Weapon Case</t>
+          <t>Revolution Case</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>$7.77</t>
+          <t>$0.96</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>$7.67</t>
+          <t>$0.91</t>
         </is>
       </c>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>$79,476.54</t>
+          <t>$85,039.50</t>
         </is>
       </c>
       <c r="E21" s="1" t="inlineStr">
@@ -1184,34 +1184,34 @@
       </c>
       <c r="F21" s="1" t="inlineStr">
         <is>
-          <t>10362.0</t>
+          <t>93450.0</t>
         </is>
       </c>
       <c r="G21" s="1" t="inlineStr">
         <is>
-          <t>0.99%</t>
+          <t>0.95%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Prisma 2 Case</t>
+          <t>Huntsman Weapon Case</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>$0.63</t>
+          <t>$7.66</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>$0.53</t>
+          <t>$7.66</t>
         </is>
       </c>
       <c r="D22" s="1" t="inlineStr">
         <is>
-          <t>$72,114.98</t>
+          <t>$79,372.92</t>
         </is>
       </c>
       <c r="E22" s="1" t="inlineStr">
@@ -1221,34 +1221,34 @@
       </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t>136066.0</t>
+          <t>10362.0</t>
         </is>
       </c>
       <c r="G22" s="1" t="inlineStr">
         <is>
-          <t>0.84%</t>
+          <t>1.0%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Clutch Case</t>
+          <t>Prisma 2 Case</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>$0.59</t>
+          <t>$0.63</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>$0.37</t>
+          <t>$0.56</t>
         </is>
       </c>
       <c r="D23" s="1" t="inlineStr">
         <is>
-          <t>$71,048.14</t>
+          <t>$76,196.96</t>
         </is>
       </c>
       <c r="E23" s="1" t="inlineStr">
@@ -1258,12 +1258,12 @@
       </c>
       <c r="F23" s="1" t="inlineStr">
         <is>
-          <t>192022.0</t>
+          <t>136066.0</t>
         </is>
       </c>
       <c r="G23" s="1" t="inlineStr">
         <is>
-          <t>0.63%</t>
+          <t>0.89%</t>
         </is>
       </c>
     </row>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>$0.60</t>
+          <t>$0.61</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="G24" s="1" t="inlineStr">
         <is>
-          <t>0.83%</t>
+          <t>0.82%</t>
         </is>
       </c>
     </row>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>$0.57</t>
+          <t>$0.56</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="G26" s="1" t="inlineStr">
         <is>
-          <t>0.79%</t>
+          <t>0.8%</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>$1.75</t>
+          <t>$1.71</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr">
@@ -1411,29 +1411,29 @@
       </c>
       <c r="G27" s="1" t="inlineStr">
         <is>
-          <t>0.86%</t>
+          <t>0.88%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Chroma Case</t>
+          <t>Snakebite Case</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>$2.35</t>
+          <t>$0.28</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>$2.27</t>
+          <t>$0.26</t>
         </is>
       </c>
       <c r="D28" s="1" t="inlineStr">
         <is>
-          <t>$50,550.63</t>
+          <t>$50,813.36</t>
         </is>
       </c>
       <c r="E28" s="1" t="inlineStr">
@@ -1443,34 +1443,34 @@
       </c>
       <c r="F28" s="1" t="inlineStr">
         <is>
-          <t>22269.0</t>
+          <t>195436.0</t>
         </is>
       </c>
       <c r="G28" s="1" t="inlineStr">
         <is>
-          <t>0.97%</t>
+          <t>0.93%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>CS:GO Weapon Case 2</t>
+          <t>Chroma Case</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>$11.23</t>
+          <t>$2.42</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t>$11.23</t>
+          <t>$2.27</t>
         </is>
       </c>
       <c r="D29" s="1" t="inlineStr">
         <is>
-          <t>$44,470.80</t>
+          <t>$50,550.63</t>
         </is>
       </c>
       <c r="E29" s="1" t="inlineStr">
@@ -1480,34 +1480,34 @@
       </c>
       <c r="F29" s="1" t="inlineStr">
         <is>
-          <t>3960.0</t>
+          <t>22269.0</t>
         </is>
       </c>
       <c r="G29" s="1" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>0.94%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Recoil Case</t>
+          <t>CS:GO Weapon Case 2</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>$0.40</t>
+          <t>$11.43</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>$0.38</t>
+          <t>$11.28</t>
         </is>
       </c>
       <c r="D30" s="1" t="inlineStr">
         <is>
-          <t>$40,809.34</t>
+          <t>$44,668.80</t>
         </is>
       </c>
       <c r="E30" s="1" t="inlineStr">
@@ -1517,12 +1517,12 @@
       </c>
       <c r="F30" s="1" t="inlineStr">
         <is>
-          <t>107393.0</t>
+          <t>3960.0</t>
         </is>
       </c>
       <c r="G30" s="1" t="inlineStr">
         <is>
-          <t>0.95%</t>
+          <t>0.99%</t>
         </is>
       </c>
     </row>
@@ -1534,17 +1534,17 @@
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>$5.75</t>
+          <t>$5.89</t>
         </is>
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t>$5.37</t>
+          <t>$5.50</t>
         </is>
       </c>
       <c r="D31" s="1" t="inlineStr">
         <is>
-          <t>$39,936.69</t>
+          <t>$40,903.50</t>
         </is>
       </c>
       <c r="E31" s="1" t="inlineStr">
@@ -1566,22 +1566,22 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Operation Vanguard Weapon Case</t>
+          <t>Recoil Case</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>$2.18</t>
+          <t>$0.41</t>
         </is>
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>$2.08</t>
+          <t>$0.38</t>
         </is>
       </c>
       <c r="D32" s="1" t="inlineStr">
         <is>
-          <t>$38,457.12</t>
+          <t>$40,809.34</t>
         </is>
       </c>
       <c r="E32" s="1" t="inlineStr">
@@ -1591,34 +1591,34 @@
       </c>
       <c r="F32" s="1" t="inlineStr">
         <is>
-          <t>18489.0</t>
+          <t>107393.0</t>
         </is>
       </c>
       <c r="G32" s="1" t="inlineStr">
         <is>
-          <t>0.95%</t>
+          <t>0.93%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>CS20 Case</t>
+          <t>Operation Vanguard Weapon Case</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>$0.61</t>
+          <t>$2.26</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>$0.56</t>
+          <t>$2.08</t>
         </is>
       </c>
       <c r="D33" s="1" t="inlineStr">
         <is>
-          <t>$37,217.04</t>
+          <t>$38,457.12</t>
         </is>
       </c>
       <c r="E33" s="1" t="inlineStr">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="F33" s="1" t="inlineStr">
         <is>
-          <t>66459.0</t>
+          <t>18489.0</t>
         </is>
       </c>
       <c r="G33" s="1" t="inlineStr">
@@ -1640,22 +1640,22 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>CS:GO Weapon Case 3</t>
+          <t>Horizon Case</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>$6.94</t>
+          <t>$0.69</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>$6.94</t>
+          <t>$0.66</t>
         </is>
       </c>
       <c r="D34" s="1" t="inlineStr">
         <is>
-          <t>$36,643.20</t>
+          <t>$38,089.26</t>
         </is>
       </c>
       <c r="E34" s="1" t="inlineStr">
@@ -1665,34 +1665,34 @@
       </c>
       <c r="F34" s="1" t="inlineStr">
         <is>
-          <t>5280.0</t>
+          <t>57711.0</t>
         </is>
       </c>
       <c r="G34" s="1" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>0.96%</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Snakebite Case</t>
+          <t>CS20 Case</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>$0.27</t>
+          <t>$0.62</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>$0.18</t>
+          <t>$0.56</t>
         </is>
       </c>
       <c r="D35" s="1" t="inlineStr">
         <is>
-          <t>$35,178.48</t>
+          <t>$37,217.04</t>
         </is>
       </c>
       <c r="E35" s="1" t="inlineStr">
@@ -1702,34 +1702,34 @@
       </c>
       <c r="F35" s="1" t="inlineStr">
         <is>
-          <t>195436.0</t>
+          <t>66459.0</t>
         </is>
       </c>
       <c r="G35" s="1" t="inlineStr">
         <is>
-          <t>0.67%</t>
+          <t>0.9%</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Horizon Case</t>
+          <t>CS:GO Weapon Case 3</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>$0.70</t>
+          <t>$7.11</t>
         </is>
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t>$0.58</t>
+          <t>$6.67</t>
         </is>
       </c>
       <c r="D36" s="1" t="inlineStr">
         <is>
-          <t>$33,472.38</t>
+          <t>$35,217.60</t>
         </is>
       </c>
       <c r="E36" s="1" t="inlineStr">
@@ -1739,12 +1739,12 @@
       </c>
       <c r="F36" s="1" t="inlineStr">
         <is>
-          <t>57711.0</t>
+          <t>5280.0</t>
         </is>
       </c>
       <c r="G36" s="1" t="inlineStr">
         <is>
-          <t>0.83%</t>
+          <t>0.94%</t>
         </is>
       </c>
     </row>
@@ -1756,17 +1756,17 @@
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>$34.91</t>
+          <t>$34.38</t>
         </is>
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>$34.91</t>
+          <t>$34.38</t>
         </is>
       </c>
       <c r="D37" s="1" t="inlineStr">
         <is>
-          <t>$32,291.75</t>
+          <t>$31,801.50</t>
         </is>
       </c>
       <c r="E37" s="1" t="inlineStr">
@@ -1798,12 +1798,12 @@
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>$0.78</t>
+          <t>$0.80</t>
         </is>
       </c>
       <c r="D38" s="1" t="inlineStr">
         <is>
-          <t>$28,176.72</t>
+          <t>$28,899.20</t>
         </is>
       </c>
       <c r="E38" s="1" t="inlineStr">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="G38" s="1" t="inlineStr">
         <is>
-          <t>0.95%</t>
+          <t>0.98%</t>
         </is>
       </c>
     </row>
@@ -1867,17 +1867,17 @@
       </c>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>$4.71</t>
+          <t>$4.90</t>
         </is>
       </c>
       <c r="C40" s="1" t="inlineStr">
         <is>
-          <t>$4.71</t>
+          <t>$4.82</t>
         </is>
       </c>
       <c r="D40" s="1" t="inlineStr">
         <is>
-          <t>$22,655.10</t>
+          <t>$23,184.20</t>
         </is>
       </c>
       <c r="E40" s="1" t="inlineStr">
@@ -1892,7 +1892,7 @@
       </c>
       <c r="G40" s="1" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>0.98%</t>
         </is>
       </c>
     </row>

--- a/[3]any_run_saves/onlycases.xlsx
+++ b/[3]any_run_saves/onlycases.xlsx
@@ -461,17 +461,17 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>$5.12</t>
+          <t>$5.41</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>$5.11</t>
+          <t>$4.76</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>$391,655.95</t>
+          <t>$367,367.28</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
@@ -481,34 +481,34 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>76645.0</t>
+          <t>77178.0</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>0.88%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Glove Case</t>
+          <t>CS:GO Weapon Case</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>$4.23</t>
+          <t>$76.02</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>$4.00</t>
+          <t>$72.23</t>
         </is>
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>$304,368.00</t>
+          <t>$298,020.98</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
@@ -518,7 +518,7 @@
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>76092.0</t>
+          <t>4126.0</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
@@ -530,22 +530,22 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>CS:GO Weapon Case</t>
+          <t>Glove Case</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>$72.85</t>
+          <t>$4.29</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>$72.37</t>
+          <t>$3.79</t>
         </is>
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>$298,526.25</t>
+          <t>$287,039.44</t>
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr">
@@ -555,12 +555,12 @@
       </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>4125.0</t>
+          <t>75736.0</t>
         </is>
       </c>
       <c r="G4" s="1" t="inlineStr">
         <is>
-          <t>0.99%</t>
+          <t>0.88%</t>
         </is>
       </c>
     </row>
@@ -572,17 +572,17 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>$42.33</t>
+          <t>$40.07</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>$41.76</t>
+          <t>$40.07</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>$183,034.08</t>
+          <t>$174,024.01</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
@@ -592,34 +592,34 @@
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>4383.0</t>
+          <t>4343.0</t>
         </is>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>0.99%</t>
+          <t>1.0%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Operation Broken Fang Case</t>
+          <t>Operation Phoenix Weapon Case</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>$3.48</t>
+          <t>$2.71</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>$3.47</t>
+          <t>$2.61</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>$160,154.38</t>
+          <t>$156,709.62</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
@@ -629,34 +629,34 @@
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>46154.0</t>
+          <t>60042.0</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>0.96%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Operation Phoenix Weapon Case</t>
+          <t>Operation Broken Fang Case</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>$2.80</t>
+          <t>$3.47</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>$2.63</t>
+          <t>$3.34</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>$155,811.72</t>
+          <t>$154,505.06</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
@@ -666,34 +666,34 @@
       </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t>59244.0</t>
+          <t>46259.0</t>
         </is>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
-          <t>0.94%</t>
+          <t>0.96%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Gamma 2 Case</t>
+          <t>Chroma 3 Case</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>$2.15</t>
+          <t>$1.99</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>$2.00</t>
+          <t>$1.88</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>$145,628.00</t>
+          <t>$141,248.16</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
@@ -703,12 +703,12 @@
       </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
-          <t>72814.0</t>
+          <t>75132.0</t>
         </is>
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
-          <t>0.93%</t>
+          <t>0.94%</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>$2.38</t>
+          <t>$2.26</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>$141,841.70</t>
+          <t>$141,224.76</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr">
@@ -740,34 +740,34 @@
       </c>
       <c r="F9" s="1" t="inlineStr">
         <is>
-          <t>65065.0</t>
+          <t>64782.0</t>
         </is>
       </c>
       <c r="G9" s="1" t="inlineStr">
         <is>
-          <t>0.92%</t>
+          <t>0.96%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Chroma 3 Case</t>
+          <t>Shattered Web Case</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>$2.04</t>
+          <t>$3.16</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>$1.90</t>
+          <t>$3.16</t>
         </is>
       </c>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>$141,194.70</t>
+          <t>$135,402.84</t>
         </is>
       </c>
       <c r="E10" s="1" t="inlineStr">
@@ -777,34 +777,34 @@
       </c>
       <c r="F10" s="1" t="inlineStr">
         <is>
-          <t>74313.0</t>
+          <t>42849.0</t>
         </is>
       </c>
       <c r="G10" s="1" t="inlineStr">
         <is>
-          <t>0.93%</t>
+          <t>1.0%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Shattered Web Case</t>
+          <t>Gamma 2 Case</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>$3.03</t>
+          <t>$2.05</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>$3.03</t>
+          <t>$1.84</t>
         </is>
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>$134,289.60</t>
+          <t>$134,204.08</t>
         </is>
       </c>
       <c r="E11" s="1" t="inlineStr">
@@ -814,34 +814,34 @@
       </c>
       <c r="F11" s="1" t="inlineStr">
         <is>
-          <t>44320.0</t>
+          <t>72937.0</t>
         </is>
       </c>
       <c r="G11" s="1" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>0.9%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Gamma Case</t>
+          <t>Spectrum 2 Case</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>$2.16</t>
+          <t>$1.40</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>$1.95</t>
+          <t>$1.35</t>
         </is>
       </c>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>$130,492.05</t>
+          <t>$125,667.45</t>
         </is>
       </c>
       <c r="E12" s="1" t="inlineStr">
@@ -851,34 +851,34 @@
       </c>
       <c r="F12" s="1" t="inlineStr">
         <is>
-          <t>66919.0</t>
+          <t>93087.0</t>
         </is>
       </c>
       <c r="G12" s="1" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.96%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Spectrum 2 Case</t>
+          <t>Gamma Case</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>$1.46</t>
+          <t>$2.14</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>$1.38</t>
+          <t>$1.82</t>
         </is>
       </c>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>$128,214.42</t>
+          <t>$122,668.00</t>
         </is>
       </c>
       <c r="E13" s="1" t="inlineStr">
@@ -888,34 +888,34 @@
       </c>
       <c r="F13" s="1" t="inlineStr">
         <is>
-          <t>92909.0</t>
+          <t>67400.0</t>
         </is>
       </c>
       <c r="G13" s="1" t="inlineStr">
         <is>
-          <t>0.95%</t>
+          <t>0.85%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Revolver Case</t>
+          <t>Dreams &amp; Nightmares Case</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>$1.55</t>
+          <t>$1.03</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>$1.51</t>
+          <t>$0.95</t>
         </is>
       </c>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>$124,954.01</t>
+          <t>$122,658.30</t>
         </is>
       </c>
       <c r="E14" s="1" t="inlineStr">
@@ -925,34 +925,34 @@
       </c>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t>82751.0</t>
+          <t>129114.0</t>
         </is>
       </c>
       <c r="G14" s="1" t="inlineStr">
         <is>
-          <t>0.97%</t>
+          <t>0.92%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Dreams &amp; Nightmares Case</t>
+          <t>Revolver Case</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>$0.96</t>
+          <t>$1.49</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>$0.95</t>
+          <t>$1.38</t>
         </is>
       </c>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>$120,878.00</t>
+          <t>$113,878.98</t>
         </is>
       </c>
       <c r="E15" s="1" t="inlineStr">
@@ -962,12 +962,12 @@
       </c>
       <c r="F15" s="1" t="inlineStr">
         <is>
-          <t>127240.0</t>
+          <t>82521.0</t>
         </is>
       </c>
       <c r="G15" s="1" t="inlineStr">
         <is>
-          <t>0.99%</t>
+          <t>0.93%</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>$4.25</t>
+          <t>$4.40</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>$4.25</t>
+          <t>$4.40</t>
         </is>
       </c>
       <c r="D16" s="1" t="inlineStr">
         <is>
-          <t>$108,311.25</t>
+          <t>$110,730.40</t>
         </is>
       </c>
       <c r="E16" s="1" t="inlineStr">
@@ -999,7 +999,7 @@
       </c>
       <c r="F16" s="1" t="inlineStr">
         <is>
-          <t>25485.0</t>
+          <t>25166.0</t>
         </is>
       </c>
       <c r="G16" s="1" t="inlineStr">
@@ -1016,17 +1016,17 @@
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
+          <t>$0.49</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
           <t>$0.48</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t>$0.45</t>
-        </is>
-      </c>
       <c r="D17" s="1" t="inlineStr">
         <is>
-          <t>$102,275.55</t>
+          <t>$109,625.76</t>
         </is>
       </c>
       <c r="E17" s="1" t="inlineStr">
@@ -1036,12 +1036,12 @@
       </c>
       <c r="F17" s="1" t="inlineStr">
         <is>
-          <t>227279.0</t>
+          <t>228387.0</t>
         </is>
       </c>
       <c r="G17" s="1" t="inlineStr">
         <is>
-          <t>0.94%</t>
+          <t>0.98%</t>
         </is>
       </c>
     </row>
@@ -1053,17 +1053,17 @@
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>$0.59</t>
+          <t>$0.60</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>$0.51</t>
+          <t>$0.56</t>
         </is>
       </c>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>$97,931.22</t>
+          <t>$108,212.72</t>
         </is>
       </c>
       <c r="E18" s="1" t="inlineStr">
@@ -1073,12 +1073,12 @@
       </c>
       <c r="F18" s="1" t="inlineStr">
         <is>
-          <t>192022.0</t>
+          <t>193237.0</t>
         </is>
       </c>
       <c r="G18" s="1" t="inlineStr">
         <is>
-          <t>0.86%</t>
+          <t>0.93%</t>
         </is>
       </c>
     </row>
@@ -1090,17 +1090,17 @@
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>$19.04</t>
+          <t>$20.05</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>$19.04</t>
+          <t>$19.50</t>
         </is>
       </c>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>$91,677.60</t>
+          <t>$94,555.50</t>
         </is>
       </c>
       <c r="E19" s="1" t="inlineStr">
@@ -1110,12 +1110,12 @@
       </c>
       <c r="F19" s="1" t="inlineStr">
         <is>
-          <t>4815.0</t>
+          <t>4849.0</t>
         </is>
       </c>
       <c r="G19" s="1" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>0.97%</t>
         </is>
       </c>
     </row>
@@ -1127,17 +1127,17 @@
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>$2.09</t>
+          <t>$1.93</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>$1.89</t>
+          <t>$1.87</t>
         </is>
       </c>
       <c r="D20" s="1" t="inlineStr">
         <is>
-          <t>$88,814.88</t>
+          <t>$89,503.81</t>
         </is>
       </c>
       <c r="E20" s="1" t="inlineStr">
@@ -1147,12 +1147,12 @@
       </c>
       <c r="F20" s="1" t="inlineStr">
         <is>
-          <t>46992.0</t>
+          <t>47863.0</t>
         </is>
       </c>
       <c r="G20" s="1" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.97%</t>
         </is>
       </c>
     </row>
@@ -1164,17 +1164,17 @@
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>$0.96</t>
+          <t>$0.98</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>$0.91</t>
+          <t>$0.93</t>
         </is>
       </c>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>$85,039.50</t>
+          <t>$87,920.34</t>
         </is>
       </c>
       <c r="E21" s="1" t="inlineStr">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="F21" s="1" t="inlineStr">
         <is>
-          <t>93450.0</t>
+          <t>94538.0</t>
         </is>
       </c>
       <c r="G21" s="1" t="inlineStr">
@@ -1201,17 +1201,17 @@
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>$7.66</t>
+          <t>$7.74</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>$7.66</t>
+          <t>$7.74</t>
         </is>
       </c>
       <c r="D22" s="1" t="inlineStr">
         <is>
-          <t>$79,372.92</t>
+          <t>$80,310.24</t>
         </is>
       </c>
       <c r="E22" s="1" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t>10362.0</t>
+          <t>10376.0</t>
         </is>
       </c>
       <c r="G22" s="1" t="inlineStr">
@@ -1243,12 +1243,12 @@
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>$0.56</t>
+          <t>$0.55</t>
         </is>
       </c>
       <c r="D23" s="1" t="inlineStr">
         <is>
-          <t>$76,196.96</t>
+          <t>$75,482.00</t>
         </is>
       </c>
       <c r="E23" s="1" t="inlineStr">
@@ -1258,12 +1258,12 @@
       </c>
       <c r="F23" s="1" t="inlineStr">
         <is>
-          <t>136066.0</t>
+          <t>137240.0</t>
         </is>
       </c>
       <c r="G23" s="1" t="inlineStr">
         <is>
-          <t>0.89%</t>
+          <t>0.87%</t>
         </is>
       </c>
     </row>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>$0.61</t>
+          <t>$0.60</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="D24" s="1" t="inlineStr">
         <is>
-          <t>$70,160.00</t>
+          <t>$69,288.50</t>
         </is>
       </c>
       <c r="E24" s="1" t="inlineStr">
@@ -1295,12 +1295,12 @@
       </c>
       <c r="F24" s="1" t="inlineStr">
         <is>
-          <t>140320.0</t>
+          <t>138577.0</t>
         </is>
       </c>
       <c r="G24" s="1" t="inlineStr">
         <is>
-          <t>0.82%</t>
+          <t>0.83%</t>
         </is>
       </c>
     </row>
@@ -1312,17 +1312,17 @@
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>$6.29</t>
+          <t>$6.63</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
-          <t>$6.06</t>
+          <t>$6.21</t>
         </is>
       </c>
       <c r="D25" s="1" t="inlineStr">
         <is>
-          <t>$57,866.94</t>
+          <t>$60,398.46</t>
         </is>
       </c>
       <c r="E25" s="1" t="inlineStr">
@@ -1332,12 +1332,12 @@
       </c>
       <c r="F25" s="1" t="inlineStr">
         <is>
-          <t>9549.0</t>
+          <t>9726.0</t>
         </is>
       </c>
       <c r="G25" s="1" t="inlineStr">
         <is>
-          <t>0.96%</t>
+          <t>0.94%</t>
         </is>
       </c>
     </row>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>$0.56</t>
+          <t>$0.57</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="D26" s="1" t="inlineStr">
         <is>
-          <t>$56,552.40</t>
+          <t>$57,472.20</t>
         </is>
       </c>
       <c r="E26" s="1" t="inlineStr">
@@ -1369,12 +1369,12 @@
       </c>
       <c r="F26" s="1" t="inlineStr">
         <is>
-          <t>125672.0</t>
+          <t>127716.0</t>
         </is>
       </c>
       <c r="G26" s="1" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>0.79%</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="D27" s="1" t="inlineStr">
         <is>
-          <t>$56,230.50</t>
+          <t>$56,029.50</t>
         </is>
       </c>
       <c r="E27" s="1" t="inlineStr">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="F27" s="1" t="inlineStr">
         <is>
-          <t>37487.0</t>
+          <t>37353.0</t>
         </is>
       </c>
       <c r="G27" s="1" t="inlineStr">
@@ -1418,22 +1418,22 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Snakebite Case</t>
+          <t>Chroma Case</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>$0.28</t>
+          <t>$2.41</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>$0.26</t>
+          <t>$2.27</t>
         </is>
       </c>
       <c r="D28" s="1" t="inlineStr">
         <is>
-          <t>$50,813.36</t>
+          <t>$50,979.66</t>
         </is>
       </c>
       <c r="E28" s="1" t="inlineStr">
@@ -1443,34 +1443,34 @@
       </c>
       <c r="F28" s="1" t="inlineStr">
         <is>
-          <t>195436.0</t>
+          <t>22458.0</t>
         </is>
       </c>
       <c r="G28" s="1" t="inlineStr">
         <is>
-          <t>0.93%</t>
+          <t>0.94%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Chroma Case</t>
+          <t>Snakebite Case</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>$2.42</t>
+          <t>$0.27</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t>$2.27</t>
+          <t>$0.24</t>
         </is>
       </c>
       <c r="D29" s="1" t="inlineStr">
         <is>
-          <t>$50,550.63</t>
+          <t>$46,796.40</t>
         </is>
       </c>
       <c r="E29" s="1" t="inlineStr">
@@ -1480,12 +1480,12 @@
       </c>
       <c r="F29" s="1" t="inlineStr">
         <is>
-          <t>22269.0</t>
+          <t>194985.0</t>
         </is>
       </c>
       <c r="G29" s="1" t="inlineStr">
         <is>
-          <t>0.94%</t>
+          <t>0.89%</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>$11.43</t>
+          <t>$11.35</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="D30" s="1" t="inlineStr">
         <is>
-          <t>$44,668.80</t>
+          <t>$45,898.32</t>
         </is>
       </c>
       <c r="E30" s="1" t="inlineStr">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="F30" s="1" t="inlineStr">
         <is>
-          <t>3960.0</t>
+          <t>4069.0</t>
         </is>
       </c>
       <c r="G30" s="1" t="inlineStr">
@@ -1534,17 +1534,17 @@
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>$5.89</t>
+          <t>$6.01</t>
         </is>
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t>$5.50</t>
+          <t>$5.62</t>
         </is>
       </c>
       <c r="D31" s="1" t="inlineStr">
         <is>
-          <t>$40,903.50</t>
+          <t>$42,206.20</t>
         </is>
       </c>
       <c r="E31" s="1" t="inlineStr">
@@ -1554,12 +1554,12 @@
       </c>
       <c r="F31" s="1" t="inlineStr">
         <is>
-          <t>7437.0</t>
+          <t>7510.0</t>
         </is>
       </c>
       <c r="G31" s="1" t="inlineStr">
         <is>
-          <t>0.93%</t>
+          <t>0.94%</t>
         </is>
       </c>
     </row>
@@ -1576,12 +1576,12 @@
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>$0.38</t>
+          <t>$0.39</t>
         </is>
       </c>
       <c r="D32" s="1" t="inlineStr">
         <is>
-          <t>$40,809.34</t>
+          <t>$41,893.80</t>
         </is>
       </c>
       <c r="E32" s="1" t="inlineStr">
@@ -1591,34 +1591,34 @@
       </c>
       <c r="F32" s="1" t="inlineStr">
         <is>
-          <t>107393.0</t>
+          <t>107420.0</t>
         </is>
       </c>
       <c r="G32" s="1" t="inlineStr">
         <is>
-          <t>0.93%</t>
+          <t>0.95%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Operation Vanguard Weapon Case</t>
+          <t>Horizon Case</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>$2.26</t>
+          <t>$0.70</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>$2.08</t>
+          <t>$0.66</t>
         </is>
       </c>
       <c r="D33" s="1" t="inlineStr">
         <is>
-          <t>$38,457.12</t>
+          <t>$38,366.46</t>
         </is>
       </c>
       <c r="E33" s="1" t="inlineStr">
@@ -1628,34 +1628,34 @@
       </c>
       <c r="F33" s="1" t="inlineStr">
         <is>
-          <t>18489.0</t>
+          <t>58131.0</t>
         </is>
       </c>
       <c r="G33" s="1" t="inlineStr">
         <is>
-          <t>0.92%</t>
+          <t>0.94%</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Horizon Case</t>
+          <t>Operation Vanguard Weapon Case</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>$0.69</t>
+          <t>$2.18</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>$0.66</t>
+          <t>$2.05</t>
         </is>
       </c>
       <c r="D34" s="1" t="inlineStr">
         <is>
-          <t>$38,089.26</t>
+          <t>$38,220.20</t>
         </is>
       </c>
       <c r="E34" s="1" t="inlineStr">
@@ -1665,34 +1665,34 @@
       </c>
       <c r="F34" s="1" t="inlineStr">
         <is>
-          <t>57711.0</t>
+          <t>18644.0</t>
         </is>
       </c>
       <c r="G34" s="1" t="inlineStr">
         <is>
-          <t>0.96%</t>
+          <t>0.94%</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>CS20 Case</t>
+          <t>CS:GO Weapon Case 3</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>$0.62</t>
+          <t>$6.88</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>$0.56</t>
+          <t>$6.88</t>
         </is>
       </c>
       <c r="D35" s="1" t="inlineStr">
         <is>
-          <t>$37,217.04</t>
+          <t>$36,663.52</t>
         </is>
       </c>
       <c r="E35" s="1" t="inlineStr">
@@ -1702,34 +1702,34 @@
       </c>
       <c r="F35" s="1" t="inlineStr">
         <is>
-          <t>66459.0</t>
+          <t>5329.0</t>
         </is>
       </c>
       <c r="G35" s="1" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>1.0%</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>CS:GO Weapon Case 3</t>
+          <t>CS20 Case</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>$7.11</t>
+          <t>$0.60</t>
         </is>
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t>$6.67</t>
+          <t>$0.53</t>
         </is>
       </c>
       <c r="D36" s="1" t="inlineStr">
         <is>
-          <t>$35,217.60</t>
+          <t>$35,747.44</t>
         </is>
       </c>
       <c r="E36" s="1" t="inlineStr">
@@ -1739,12 +1739,12 @@
       </c>
       <c r="F36" s="1" t="inlineStr">
         <is>
-          <t>5280.0</t>
+          <t>67448.0</t>
         </is>
       </c>
       <c r="G36" s="1" t="inlineStr">
         <is>
-          <t>0.94%</t>
+          <t>0.88%</t>
         </is>
       </c>
     </row>
@@ -1756,17 +1756,17 @@
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>$34.38</t>
+          <t>$33.97</t>
         </is>
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>$34.38</t>
+          <t>$33.97</t>
         </is>
       </c>
       <c r="D37" s="1" t="inlineStr">
         <is>
-          <t>$31,801.50</t>
+          <t>$31,694.01</t>
         </is>
       </c>
       <c r="E37" s="1" t="inlineStr">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="F37" s="1" t="inlineStr">
         <is>
-          <t>925.0</t>
+          <t>933.0</t>
         </is>
       </c>
       <c r="G37" s="1" t="inlineStr">
@@ -1798,12 +1798,12 @@
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>$0.80</t>
+          <t>$0.73</t>
         </is>
       </c>
       <c r="D38" s="1" t="inlineStr">
         <is>
-          <t>$28,899.20</t>
+          <t>$26,765.45</t>
         </is>
       </c>
       <c r="E38" s="1" t="inlineStr">
@@ -1813,12 +1813,12 @@
       </c>
       <c r="F38" s="1" t="inlineStr">
         <is>
-          <t>36124.0</t>
+          <t>36665.0</t>
         </is>
       </c>
       <c r="G38" s="1" t="inlineStr">
         <is>
-          <t>0.98%</t>
+          <t>0.89%</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>$0.76</t>
+          <t>$0.68</t>
         </is>
       </c>
       <c r="D39" s="1" t="inlineStr">
         <is>
-          <t>$26,514.12</t>
+          <t>$24,019.64</t>
         </is>
       </c>
       <c r="E39" s="1" t="inlineStr">
@@ -1850,12 +1850,12 @@
       </c>
       <c r="F39" s="1" t="inlineStr">
         <is>
-          <t>34887.0</t>
+          <t>35323.0</t>
         </is>
       </c>
       <c r="G39" s="1" t="inlineStr">
         <is>
-          <t>0.95%</t>
+          <t>0.85%</t>
         </is>
       </c>
     </row>
@@ -1867,17 +1867,17 @@
       </c>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>$4.90</t>
+          <t>$5.14</t>
         </is>
       </c>
       <c r="C40" s="1" t="inlineStr">
         <is>
-          <t>$4.82</t>
+          <t>$4.87</t>
         </is>
       </c>
       <c r="D40" s="1" t="inlineStr">
         <is>
-          <t>$23,184.20</t>
+          <t>$23,341.91</t>
         </is>
       </c>
       <c r="E40" s="1" t="inlineStr">
@@ -1887,12 +1887,12 @@
       </c>
       <c r="F40" s="1" t="inlineStr">
         <is>
-          <t>4810.0</t>
+          <t>4793.0</t>
         </is>
       </c>
       <c r="G40" s="1" t="inlineStr">
         <is>
-          <t>0.98%</t>
+          <t>0.95%</t>
         </is>
       </c>
     </row>

--- a/[3]any_run_saves/onlycases.xlsx
+++ b/[3]any_run_saves/onlycases.xlsx
@@ -461,17 +461,17 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>$5.41</t>
+          <t>$4.93</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>$4.76</t>
+          <t>$4.93</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>$367,367.28</t>
+          <t>$378,707.81</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
@@ -481,34 +481,34 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>77178.0</t>
+          <t>76817.0</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>0.88%</t>
+          <t>1.0%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>CS:GO Weapon Case</t>
+          <t>Glove Case</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>$76.02</t>
+          <t>$4.31</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>$72.23</t>
+          <t>$4.01</t>
         </is>
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>$298,020.98</t>
+          <t>$303,949.98</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
@@ -518,34 +518,34 @@
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>4126.0</t>
+          <t>75798.0</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
-          <t>0.95%</t>
+          <t>0.93%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Glove Case</t>
+          <t>CS:GO Weapon Case</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>$4.29</t>
+          <t>$74.04</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>$3.79</t>
+          <t>$72.80</t>
         </is>
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>$287,039.44</t>
+          <t>$300,518.40</t>
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr">
@@ -555,12 +555,12 @@
       </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>75736.0</t>
+          <t>4128.0</t>
         </is>
       </c>
       <c r="G4" s="1" t="inlineStr">
         <is>
-          <t>0.88%</t>
+          <t>0.98%</t>
         </is>
       </c>
     </row>
@@ -572,17 +572,17 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>$40.07</t>
+          <t>$40.89</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>$40.07</t>
+          <t>$40.77</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>$174,024.01</t>
+          <t>$176,941.80</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
@@ -592,7 +592,7 @@
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>4343.0</t>
+          <t>4340.0</t>
         </is>
       </c>
       <c r="G5" s="1" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>$2.71</t>
+          <t>$2.81</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>$156,709.62</t>
+          <t>$155,088.81</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
@@ -629,12 +629,12 @@
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>60042.0</t>
+          <t>59421.0</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
-          <t>0.96%</t>
+          <t>0.93%</t>
         </is>
       </c>
     </row>
@@ -646,17 +646,17 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>$3.47</t>
+          <t>$3.49</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>$3.34</t>
+          <t>$3.36</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>$154,505.06</t>
+          <t>$154,919.52</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t>46259.0</t>
+          <t>46107.0</t>
         </is>
       </c>
       <c r="G7" s="1" t="inlineStr">
@@ -683,17 +683,17 @@
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>$1.99</t>
+          <t>$1.90</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>$1.88</t>
+          <t>$1.90</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>$141,248.16</t>
+          <t>$142,357.50</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
@@ -703,12 +703,12 @@
       </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
-          <t>75132.0</t>
+          <t>74925.0</t>
         </is>
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
-          <t>0.94%</t>
+          <t>1.0%</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>$2.26</t>
+          <t>$2.34</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>$141,224.76</t>
+          <t>$141,261.82</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr">
@@ -740,34 +740,34 @@
       </c>
       <c r="F9" s="1" t="inlineStr">
         <is>
-          <t>64782.0</t>
+          <t>64799.0</t>
         </is>
       </c>
       <c r="G9" s="1" t="inlineStr">
         <is>
-          <t>0.96%</t>
+          <t>0.93%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Shattered Web Case</t>
+          <t>Gamma 2 Case</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>$3.16</t>
+          <t>$2.05</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>$3.16</t>
+          <t>$1.89</t>
         </is>
       </c>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>$135,402.84</t>
+          <t>$137,609.01</t>
         </is>
       </c>
       <c r="E10" s="1" t="inlineStr">
@@ -777,34 +777,34 @@
       </c>
       <c r="F10" s="1" t="inlineStr">
         <is>
-          <t>42849.0</t>
+          <t>72809.0</t>
         </is>
       </c>
       <c r="G10" s="1" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>0.92%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Gamma 2 Case</t>
+          <t>Shattered Web Case</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>$2.05</t>
+          <t>$3.24</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>$1.84</t>
+          <t>$3.12</t>
         </is>
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>$134,204.08</t>
+          <t>$133,529.76</t>
         </is>
       </c>
       <c r="E11" s="1" t="inlineStr">
@@ -814,34 +814,34 @@
       </c>
       <c r="F11" s="1" t="inlineStr">
         <is>
-          <t>72937.0</t>
+          <t>42798.0</t>
         </is>
       </c>
       <c r="G11" s="1" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.96%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Spectrum 2 Case</t>
+          <t>Gamma Case</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>$1.40</t>
+          <t>$2.04</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>$1.35</t>
+          <t>$1.97</t>
         </is>
       </c>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>$125,667.45</t>
+          <t>$132,584.94</t>
         </is>
       </c>
       <c r="E12" s="1" t="inlineStr">
@@ -851,34 +851,34 @@
       </c>
       <c r="F12" s="1" t="inlineStr">
         <is>
-          <t>93087.0</t>
+          <t>67302.0</t>
         </is>
       </c>
       <c r="G12" s="1" t="inlineStr">
         <is>
-          <t>0.96%</t>
+          <t>0.97%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Gamma Case</t>
+          <t>Spectrum 2 Case</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>$2.14</t>
+          <t>$1.49</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>$1.82</t>
+          <t>$1.35</t>
         </is>
       </c>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>$122,668.00</t>
+          <t>$125,307.00</t>
         </is>
       </c>
       <c r="E13" s="1" t="inlineStr">
@@ -888,12 +888,12 @@
       </c>
       <c r="F13" s="1" t="inlineStr">
         <is>
-          <t>67400.0</t>
+          <t>92820.0</t>
         </is>
       </c>
       <c r="G13" s="1" t="inlineStr">
         <is>
-          <t>0.85%</t>
+          <t>0.91%</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>$1.03</t>
+          <t>$1.09</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>$122,658.30</t>
+          <t>$122,413.20</t>
         </is>
       </c>
       <c r="E14" s="1" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t>129114.0</t>
+          <t>128856.0</t>
         </is>
       </c>
       <c r="G14" s="1" t="inlineStr">
         <is>
-          <t>0.92%</t>
+          <t>0.87%</t>
         </is>
       </c>
     </row>
@@ -942,17 +942,17 @@
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>$1.49</t>
+          <t>$1.55</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>$1.38</t>
+          <t>$1.43</t>
         </is>
       </c>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>$113,878.98</t>
+          <t>$117,920.66</t>
         </is>
       </c>
       <c r="E15" s="1" t="inlineStr">
@@ -962,34 +962,34 @@
       </c>
       <c r="F15" s="1" t="inlineStr">
         <is>
-          <t>82521.0</t>
+          <t>82462.0</t>
         </is>
       </c>
       <c r="G15" s="1" t="inlineStr">
         <is>
-          <t>0.93%</t>
+          <t>0.92%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Operation Riptide Case</t>
+          <t>Clutch Case</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>$4.40</t>
+          <t>$0.59</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>$4.40</t>
+          <t>$0.57</t>
         </is>
       </c>
       <c r="D16" s="1" t="inlineStr">
         <is>
-          <t>$110,730.40</t>
+          <t>$110,098.35</t>
         </is>
       </c>
       <c r="E16" s="1" t="inlineStr">
@@ -999,34 +999,34 @@
       </c>
       <c r="F16" s="1" t="inlineStr">
         <is>
-          <t>25166.0</t>
+          <t>193155.0</t>
         </is>
       </c>
       <c r="G16" s="1" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>0.97%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Fracture Case</t>
+          <t>Operation Riptide Case</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>$0.49</t>
+          <t>$4.39</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>$0.48</t>
+          <t>$4.39</t>
         </is>
       </c>
       <c r="D17" s="1" t="inlineStr">
         <is>
-          <t>$109,625.76</t>
+          <t>$110,079.25</t>
         </is>
       </c>
       <c r="E17" s="1" t="inlineStr">
@@ -1036,34 +1036,34 @@
       </c>
       <c r="F17" s="1" t="inlineStr">
         <is>
-          <t>228387.0</t>
+          <t>25075.0</t>
         </is>
       </c>
       <c r="G17" s="1" t="inlineStr">
         <is>
-          <t>0.98%</t>
+          <t>1.0%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Clutch Case</t>
+          <t>Fracture Case</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>$0.60</t>
+          <t>$0.49</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>$0.56</t>
+          <t>$0.47</t>
         </is>
       </c>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>$108,212.72</t>
+          <t>$107,123.34</t>
         </is>
       </c>
       <c r="E18" s="1" t="inlineStr">
@@ -1073,12 +1073,12 @@
       </c>
       <c r="F18" s="1" t="inlineStr">
         <is>
-          <t>193237.0</t>
+          <t>227922.0</t>
         </is>
       </c>
       <c r="G18" s="1" t="inlineStr">
         <is>
-          <t>0.93%</t>
+          <t>0.96%</t>
         </is>
       </c>
     </row>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>$20.05</t>
+          <t>$19.92</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>$94,555.50</t>
+          <t>$94,516.50</t>
         </is>
       </c>
       <c r="E19" s="1" t="inlineStr">
@@ -1110,12 +1110,12 @@
       </c>
       <c r="F19" s="1" t="inlineStr">
         <is>
-          <t>4849.0</t>
+          <t>4847.0</t>
         </is>
       </c>
       <c r="G19" s="1" t="inlineStr">
         <is>
-          <t>0.97%</t>
+          <t>0.98%</t>
         </is>
       </c>
     </row>
@@ -1132,12 +1132,12 @@
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>$1.87</t>
+          <t>$1.88</t>
         </is>
       </c>
       <c r="D20" s="1" t="inlineStr">
         <is>
-          <t>$89,503.81</t>
+          <t>$89,894.08</t>
         </is>
       </c>
       <c r="E20" s="1" t="inlineStr">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="F20" s="1" t="inlineStr">
         <is>
-          <t>47863.0</t>
+          <t>47816.0</t>
         </is>
       </c>
       <c r="G20" s="1" t="inlineStr">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>$87,920.34</t>
+          <t>$87,781.77</t>
         </is>
       </c>
       <c r="E21" s="1" t="inlineStr">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="F21" s="1" t="inlineStr">
         <is>
-          <t>94538.0</t>
+          <t>94389.0</t>
         </is>
       </c>
       <c r="G21" s="1" t="inlineStr">
@@ -1201,17 +1201,17 @@
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>$7.74</t>
+          <t>$7.88</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>$7.74</t>
+          <t>$7.75</t>
         </is>
       </c>
       <c r="D22" s="1" t="inlineStr">
         <is>
-          <t>$80,310.24</t>
+          <t>$80,352.00</t>
         </is>
       </c>
       <c r="E22" s="1" t="inlineStr">
@@ -1221,12 +1221,12 @@
       </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t>10376.0</t>
+          <t>10368.0</t>
         </is>
       </c>
       <c r="G22" s="1" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>0.98%</t>
         </is>
       </c>
     </row>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>$0.63</t>
+          <t>$0.65</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="D23" s="1" t="inlineStr">
         <is>
-          <t>$75,482.00</t>
+          <t>$75,445.70</t>
         </is>
       </c>
       <c r="E23" s="1" t="inlineStr">
@@ -1258,12 +1258,12 @@
       </c>
       <c r="F23" s="1" t="inlineStr">
         <is>
-          <t>137240.0</t>
+          <t>137174.0</t>
         </is>
       </c>
       <c r="G23" s="1" t="inlineStr">
         <is>
-          <t>0.87%</t>
+          <t>0.85%</t>
         </is>
       </c>
     </row>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>$0.60</t>
+          <t>$0.61</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="D24" s="1" t="inlineStr">
         <is>
-          <t>$69,288.50</t>
+          <t>$68,891.00</t>
         </is>
       </c>
       <c r="E24" s="1" t="inlineStr">
@@ -1295,12 +1295,12 @@
       </c>
       <c r="F24" s="1" t="inlineStr">
         <is>
-          <t>138577.0</t>
+          <t>137782.0</t>
         </is>
       </c>
       <c r="G24" s="1" t="inlineStr">
         <is>
-          <t>0.83%</t>
+          <t>0.82%</t>
         </is>
       </c>
     </row>
@@ -1312,17 +1312,17 @@
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>$6.63</t>
+          <t>$6.81</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
-          <t>$6.21</t>
+          <t>$6.40</t>
         </is>
       </c>
       <c r="D25" s="1" t="inlineStr">
         <is>
-          <t>$60,398.46</t>
+          <t>$62,208.00</t>
         </is>
       </c>
       <c r="E25" s="1" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="F25" s="1" t="inlineStr">
         <is>
-          <t>9726.0</t>
+          <t>9720.0</t>
         </is>
       </c>
       <c r="G25" s="1" t="inlineStr">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>$0.57</t>
+          <t>$0.58</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="D26" s="1" t="inlineStr">
         <is>
-          <t>$57,472.20</t>
+          <t>$57,076.20</t>
         </is>
       </c>
       <c r="E26" s="1" t="inlineStr">
@@ -1369,12 +1369,12 @@
       </c>
       <c r="F26" s="1" t="inlineStr">
         <is>
-          <t>127716.0</t>
+          <t>126836.0</t>
         </is>
       </c>
       <c r="G26" s="1" t="inlineStr">
         <is>
-          <t>0.79%</t>
+          <t>0.78%</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>$1.71</t>
+          <t>$1.73</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="D27" s="1" t="inlineStr">
         <is>
-          <t>$56,029.50</t>
+          <t>$56,025.00</t>
         </is>
       </c>
       <c r="E27" s="1" t="inlineStr">
@@ -1406,12 +1406,12 @@
       </c>
       <c r="F27" s="1" t="inlineStr">
         <is>
-          <t>37353.0</t>
+          <t>37350.0</t>
         </is>
       </c>
       <c r="G27" s="1" t="inlineStr">
         <is>
-          <t>0.88%</t>
+          <t>0.87%</t>
         </is>
       </c>
     </row>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>$2.41</t>
+          <t>$2.38</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="D28" s="1" t="inlineStr">
         <is>
-          <t>$50,979.66</t>
+          <t>$50,872.97</t>
         </is>
       </c>
       <c r="E28" s="1" t="inlineStr">
@@ -1443,12 +1443,12 @@
       </c>
       <c r="F28" s="1" t="inlineStr">
         <is>
-          <t>22458.0</t>
+          <t>22411.0</t>
         </is>
       </c>
       <c r="G28" s="1" t="inlineStr">
         <is>
-          <t>0.94%</t>
+          <t>0.95%</t>
         </is>
       </c>
     </row>
@@ -1460,17 +1460,17 @@
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>$0.27</t>
+          <t>$0.28</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t>$0.24</t>
+          <t>$0.25</t>
         </is>
       </c>
       <c r="D29" s="1" t="inlineStr">
         <is>
-          <t>$46,796.40</t>
+          <t>$48,716.50</t>
         </is>
       </c>
       <c r="E29" s="1" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="F29" s="1" t="inlineStr">
         <is>
-          <t>194985.0</t>
+          <t>194866.0</t>
         </is>
       </c>
       <c r="G29" s="1" t="inlineStr">
@@ -1497,17 +1497,17 @@
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>$11.35</t>
+          <t>$11.10</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>$11.28</t>
+          <t>$11.10</t>
         </is>
       </c>
       <c r="D30" s="1" t="inlineStr">
         <is>
-          <t>$45,898.32</t>
+          <t>$45,188.10</t>
         </is>
       </c>
       <c r="E30" s="1" t="inlineStr">
@@ -1517,12 +1517,12 @@
       </c>
       <c r="F30" s="1" t="inlineStr">
         <is>
-          <t>4069.0</t>
+          <t>4071.0</t>
         </is>
       </c>
       <c r="G30" s="1" t="inlineStr">
         <is>
-          <t>0.99%</t>
+          <t>1.0%</t>
         </is>
       </c>
     </row>
@@ -1534,17 +1534,17 @@
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>$6.01</t>
+          <t>$6.14</t>
         </is>
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t>$5.62</t>
+          <t>$5.60</t>
         </is>
       </c>
       <c r="D31" s="1" t="inlineStr">
         <is>
-          <t>$42,206.20</t>
+          <t>$42,078.40</t>
         </is>
       </c>
       <c r="E31" s="1" t="inlineStr">
@@ -1554,12 +1554,12 @@
       </c>
       <c r="F31" s="1" t="inlineStr">
         <is>
-          <t>7510.0</t>
+          <t>7514.0</t>
         </is>
       </c>
       <c r="G31" s="1" t="inlineStr">
         <is>
-          <t>0.94%</t>
+          <t>0.91%</t>
         </is>
       </c>
     </row>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>$0.41</t>
+          <t>$0.42</t>
         </is>
       </c>
       <c r="C32" s="1" t="inlineStr">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="D32" s="1" t="inlineStr">
         <is>
-          <t>$41,893.80</t>
+          <t>$41,896.14</t>
         </is>
       </c>
       <c r="E32" s="1" t="inlineStr">
@@ -1591,12 +1591,12 @@
       </c>
       <c r="F32" s="1" t="inlineStr">
         <is>
-          <t>107420.0</t>
+          <t>107426.0</t>
         </is>
       </c>
       <c r="G32" s="1" t="inlineStr">
         <is>
-          <t>0.95%</t>
+          <t>0.93%</t>
         </is>
       </c>
     </row>
@@ -1608,7 +1608,7 @@
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>$0.70</t>
+          <t>$0.71</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr">
@@ -1618,7 +1618,7 @@
       </c>
       <c r="D33" s="1" t="inlineStr">
         <is>
-          <t>$38,366.46</t>
+          <t>$38,273.40</t>
         </is>
       </c>
       <c r="E33" s="1" t="inlineStr">
@@ -1628,12 +1628,12 @@
       </c>
       <c r="F33" s="1" t="inlineStr">
         <is>
-          <t>58131.0</t>
+          <t>57990.0</t>
         </is>
       </c>
       <c r="G33" s="1" t="inlineStr">
         <is>
-          <t>0.94%</t>
+          <t>0.93%</t>
         </is>
       </c>
     </row>
@@ -1645,7 +1645,7 @@
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>$2.18</t>
+          <t>$2.16</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr">
@@ -1655,7 +1655,7 @@
       </c>
       <c r="D34" s="1" t="inlineStr">
         <is>
-          <t>$38,220.20</t>
+          <t>$38,203.80</t>
         </is>
       </c>
       <c r="E34" s="1" t="inlineStr">
@@ -1665,34 +1665,34 @@
       </c>
       <c r="F34" s="1" t="inlineStr">
         <is>
-          <t>18644.0</t>
+          <t>18636.0</t>
         </is>
       </c>
       <c r="G34" s="1" t="inlineStr">
         <is>
-          <t>0.94%</t>
+          <t>0.95%</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>CS:GO Weapon Case 3</t>
+          <t>CS20 Case</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>$6.88</t>
+          <t>$0.61</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>$6.88</t>
+          <t>$0.56</t>
         </is>
       </c>
       <c r="D35" s="1" t="inlineStr">
         <is>
-          <t>$36,663.52</t>
+          <t>$37,622.48</t>
         </is>
       </c>
       <c r="E35" s="1" t="inlineStr">
@@ -1702,34 +1702,34 @@
       </c>
       <c r="F35" s="1" t="inlineStr">
         <is>
-          <t>5329.0</t>
+          <t>67183.0</t>
         </is>
       </c>
       <c r="G35" s="1" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>0.92%</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>CS20 Case</t>
+          <t>CS:GO Weapon Case 3</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>$0.60</t>
+          <t>$6.99</t>
         </is>
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t>$0.53</t>
+          <t>$6.99</t>
         </is>
       </c>
       <c r="D36" s="1" t="inlineStr">
         <is>
-          <t>$35,747.44</t>
+          <t>$37,256.70</t>
         </is>
       </c>
       <c r="E36" s="1" t="inlineStr">
@@ -1739,12 +1739,12 @@
       </c>
       <c r="F36" s="1" t="inlineStr">
         <is>
-          <t>67448.0</t>
+          <t>5330.0</t>
         </is>
       </c>
       <c r="G36" s="1" t="inlineStr">
         <is>
-          <t>0.88%</t>
+          <t>1.0%</t>
         </is>
       </c>
     </row>
@@ -1756,17 +1756,17 @@
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>$33.97</t>
+          <t>$34.09</t>
         </is>
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>$33.97</t>
+          <t>$34.09</t>
         </is>
       </c>
       <c r="D37" s="1" t="inlineStr">
         <is>
-          <t>$31,694.01</t>
+          <t>$31,737.79</t>
         </is>
       </c>
       <c r="E37" s="1" t="inlineStr">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="F37" s="1" t="inlineStr">
         <is>
-          <t>933.0</t>
+          <t>931.0</t>
         </is>
       </c>
       <c r="G37" s="1" t="inlineStr">
@@ -1798,12 +1798,12 @@
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>$0.73</t>
+          <t>$0.80</t>
         </is>
       </c>
       <c r="D38" s="1" t="inlineStr">
         <is>
-          <t>$26,765.45</t>
+          <t>$29,423.20</t>
         </is>
       </c>
       <c r="E38" s="1" t="inlineStr">
@@ -1813,12 +1813,12 @@
       </c>
       <c r="F38" s="1" t="inlineStr">
         <is>
-          <t>36665.0</t>
+          <t>36779.0</t>
         </is>
       </c>
       <c r="G38" s="1" t="inlineStr">
         <is>
-          <t>0.89%</t>
+          <t>0.98%</t>
         </is>
       </c>
     </row>
@@ -1830,17 +1830,17 @@
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>$0.80</t>
+          <t>$0.79</t>
         </is>
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>$0.68</t>
+          <t>$0.76</t>
         </is>
       </c>
       <c r="D39" s="1" t="inlineStr">
         <is>
-          <t>$24,019.64</t>
+          <t>$26,844.72</t>
         </is>
       </c>
       <c r="E39" s="1" t="inlineStr">
@@ -1850,12 +1850,12 @@
       </c>
       <c r="F39" s="1" t="inlineStr">
         <is>
-          <t>35323.0</t>
+          <t>35322.0</t>
         </is>
       </c>
       <c r="G39" s="1" t="inlineStr">
         <is>
-          <t>0.85%</t>
+          <t>0.96%</t>
         </is>
       </c>
     </row>
@@ -1867,17 +1867,17 @@
       </c>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>$5.14</t>
+          <t>$5.17</t>
         </is>
       </c>
       <c r="C40" s="1" t="inlineStr">
         <is>
-          <t>$4.87</t>
+          <t>$5.02</t>
         </is>
       </c>
       <c r="D40" s="1" t="inlineStr">
         <is>
-          <t>$23,341.91</t>
+          <t>$24,070.90</t>
         </is>
       </c>
       <c r="E40" s="1" t="inlineStr">
@@ -1887,12 +1887,12 @@
       </c>
       <c r="F40" s="1" t="inlineStr">
         <is>
-          <t>4793.0</t>
+          <t>4795.0</t>
         </is>
       </c>
       <c r="G40" s="1" t="inlineStr">
         <is>
-          <t>0.95%</t>
+          <t>0.97%</t>
         </is>
       </c>
     </row>
